--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_JERSEY_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_JERSEY_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1400"/>
+  <dimension ref="A1:D1394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C17">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C24">
@@ -740,14 +740,14 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
         <v>19</v>
       </c>
       <c r="D28">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="29">
@@ -838,7 +838,7 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="D43">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="44">
@@ -968,13 +968,13 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1026,7 +1026,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1091,7 +1091,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C55">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C82">
@@ -1693,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="D100">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="101">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C106">
@@ -1795,7 +1795,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -2169,19 +2169,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C136">
         <v>18</v>
       </c>
       <c r="D136">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="137">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C141">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C146">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C152">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C155">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C180">
@@ -2779,7 +2779,7 @@
         <v>178</v>
       </c>
       <c r="D182">
-        <v>0.009036450401055945</v>
+        <v>0.009036450401055943</v>
       </c>
     </row>
     <row r="183">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C191">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C192">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C204">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C205">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3227,7 +3227,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C217">
@@ -3240,7 +3240,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C218">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C220">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C233">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C240">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C243">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C255">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C257">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C260">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C264">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C268">
@@ -3952,20 +3952,20 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C272">
         <v>19</v>
       </c>
       <c r="D272">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C273">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C275">
@@ -4004,14 +4004,14 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C276">
         <v>18</v>
       </c>
       <c r="D276">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C280">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C284">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C290">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C296">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C299">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C302">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C305">
@@ -4401,7 +4401,7 @@
         <v>18</v>
       </c>
       <c r="D306">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="307">
@@ -4427,7 +4427,7 @@
         <v>18</v>
       </c>
       <c r="D308">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="309">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C318">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C320">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C324">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C328">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C329">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C341">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C344">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C349">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C355">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C358">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C368">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C370">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C373">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C377">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C380">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C387">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C391">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C407">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C412">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C417">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C419">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C422">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C426">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C431">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C432">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C435">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C453">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C501">
@@ -7177,7 +7177,7 @@
         <v>19</v>
       </c>
       <c r="D518">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="519">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C520">
@@ -7255,7 +7255,7 @@
         <v>18</v>
       </c>
       <c r="D524">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="525">
@@ -7339,7 +7339,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C531">
@@ -7404,7 +7404,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C536">
@@ -7430,7 +7430,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C538">
@@ -7534,7 +7534,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C546">
@@ -7848,7 +7848,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C569">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C574">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C578">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C580">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C581">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C583">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C584">
@@ -8063,7 +8063,7 @@
         <v>19</v>
       </c>
       <c r="D585">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="586">
@@ -8095,7 +8095,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C589">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C590">
@@ -8134,7 +8134,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C591">
@@ -8147,7 +8147,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C592">
@@ -8160,7 +8160,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C593">
@@ -8186,7 +8186,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C596">
@@ -8303,7 +8303,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8316,7 +8316,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C605">
@@ -8355,7 +8355,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C608">
@@ -8368,7 +8368,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C609">
@@ -8407,7 +8407,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C612">
@@ -8433,7 +8433,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C614">
@@ -8446,7 +8446,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C615">
@@ -8459,7 +8459,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C616">
@@ -8485,7 +8485,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C618">
@@ -8498,7 +8498,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C619">
@@ -8706,7 +8706,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C635">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C642">
@@ -8927,7 +8927,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C652">
@@ -9161,7 +9161,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C670">
@@ -9265,7 +9265,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C678">
@@ -9395,7 +9395,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C688">
@@ -9408,7 +9408,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9941,7 +9941,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C730">
@@ -9967,7 +9967,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C732">
@@ -10188,7 +10188,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C749">
@@ -10227,7 +10227,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C752">
@@ -10663,7 +10663,7 @@
         <v>18</v>
       </c>
       <c r="D785">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="786">
@@ -10786,7 +10786,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C795">
@@ -10851,7 +10851,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C800">
@@ -10864,7 +10864,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C801">
@@ -10955,7 +10955,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C808">
@@ -11046,7 +11046,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C815">
@@ -11157,7 +11157,7 @@
         <v>19</v>
       </c>
       <c r="D823">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="824">
@@ -11209,7 +11209,7 @@
         <v>19</v>
       </c>
       <c r="D827">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="828">
@@ -11358,7 +11358,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C839">
@@ -11482,7 +11482,7 @@
         <v>18</v>
       </c>
       <c r="D848">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="849">
@@ -11586,7 +11586,7 @@
         <v>19</v>
       </c>
       <c r="D856">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="857">
@@ -11748,7 +11748,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C869">
@@ -11943,7 +11943,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C884">
@@ -11956,7 +11956,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C885">
@@ -11969,7 +11969,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C886">
@@ -11982,7 +11982,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C887">
@@ -11995,7 +11995,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C888">
@@ -12021,7 +12021,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C890">
@@ -12034,7 +12034,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C891">
@@ -12047,7 +12047,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C892">
@@ -12073,7 +12073,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C894">
@@ -12086,7 +12086,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C895">
@@ -12099,7 +12099,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C896">
@@ -12112,7 +12112,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C897">
@@ -12125,7 +12125,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C898">
@@ -12164,20 +12164,20 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C901">
         <v>18</v>
       </c>
       <c r="D901">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C902">
@@ -12242,7 +12242,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C907">
@@ -12319,7 +12319,7 @@
         <v>18</v>
       </c>
       <c r="D912">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="913">
@@ -12397,7 +12397,7 @@
         <v>19</v>
       </c>
       <c r="D918">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="919">
@@ -12585,7 +12585,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C933">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C938">
@@ -12780,14 +12780,14 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C948">
         <v>19</v>
       </c>
       <c r="D948">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="949">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C958">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C962">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C963">
@@ -13073,7 +13073,7 @@
         <v>18</v>
       </c>
       <c r="D970">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="971">
@@ -13170,20 +13170,20 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C978">
         <v>18</v>
       </c>
       <c r="D978">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C979">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C985">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C988">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C997">
@@ -13489,7 +13489,7 @@
         <v>196</v>
       </c>
       <c r="D1002">
-        <v>0.009950248756218905</v>
+        <v>0.009950248756218904</v>
       </c>
     </row>
     <row r="1003">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1010">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1019">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1035">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1039">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1040">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1046">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1054">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1055">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1056">
@@ -14262,14 +14262,14 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1062">
         <v>18</v>
       </c>
       <c r="D1062">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="1063">
@@ -14288,7 +14288,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1064">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1065">
@@ -14366,7 +14366,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1070">
@@ -14490,7 +14490,7 @@
         <v>196</v>
       </c>
       <c r="D1079">
-        <v>0.009950248756218905</v>
+        <v>0.009950248756218904</v>
       </c>
     </row>
     <row r="1080">
@@ -14561,7 +14561,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1085">
@@ -14639,7 +14639,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1091">
@@ -14743,7 +14743,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1099">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1105">
@@ -14852,7 +14852,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1107">
@@ -14891,7 +14891,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1110">
@@ -14904,7 +14904,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1111">
@@ -14943,7 +14943,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1114">
@@ -14982,7 +14982,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1117">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1123">
@@ -15083,7 +15083,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1124">
@@ -15096,7 +15096,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1125">
@@ -15200,7 +15200,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1133">
@@ -15304,7 +15304,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1141">
@@ -15317,7 +15317,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1142">
@@ -15330,7 +15330,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1143">
@@ -15651,7 +15651,7 @@
         <v>18</v>
       </c>
       <c r="D1166">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="1167">
@@ -15696,7 +15696,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1170">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1191">
@@ -16005,7 +16005,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1193">
@@ -16070,7 +16070,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1198">
@@ -16161,7 +16161,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1205">
@@ -16200,7 +16200,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1208">
@@ -16213,7 +16213,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1209">
@@ -16252,7 +16252,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1212">
@@ -16278,7 +16278,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1214">
@@ -16356,7 +16356,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1220">
@@ -16376,7 +16376,7 @@
         <v>19</v>
       </c>
       <c r="D1221">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="1222">
@@ -16395,7 +16395,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1223">
@@ -16538,7 +16538,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1234">
@@ -16634,7 +16634,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1241">
@@ -16673,7 +16673,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1244">
@@ -16751,7 +16751,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1250">
@@ -16790,7 +16790,7 @@
     <row r="1253">
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1253">
@@ -16816,7 +16816,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1255">
@@ -16927,7 +16927,7 @@
         <v>19</v>
       </c>
       <c r="D1263">
-        <v>0.0009645649304497919</v>
+        <v>0.000964564930449792</v>
       </c>
     </row>
     <row r="1264">
@@ -16985,7 +16985,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1268">
@@ -16998,7 +16998,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1269">
@@ -17180,7 +17180,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1283">
@@ -17193,7 +17193,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1284">
@@ -17245,7 +17245,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1288">
@@ -17258,7 +17258,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1289">
@@ -17375,7 +17375,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1298">
@@ -17414,7 +17414,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1301">
@@ -17440,7 +17440,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1303">
@@ -17479,7 +17479,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1306">
@@ -17518,7 +17518,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1309">
@@ -17622,7 +17622,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1317">
@@ -17635,7 +17635,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1318">
@@ -17687,7 +17687,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1322">
@@ -17778,7 +17778,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1329">
@@ -17791,7 +17791,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1330">
@@ -18110,7 +18110,7 @@
         <v>18</v>
       </c>
       <c r="D1354">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="1355">
@@ -18129,7 +18129,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1356">
@@ -18233,7 +18233,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1364">
@@ -18246,7 +18246,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1365">
@@ -18555,7 +18555,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1388">
@@ -18614,7 +18614,7 @@
         <v>18</v>
       </c>
       <c r="D1392">
-        <v>0.0009137983551629607</v>
+        <v>0.0009137983551629608</v>
       </c>
     </row>
     <row r="1393">
@@ -18641,41 +18641,6 @@
       </c>
       <c r="D1394">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
